--- a/Listas de precios/minorista/pasador con portacerrojo.xlsx
+++ b/Listas de precios/minorista/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">
@@ -1086,18 +1086,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/pasador con portacerrojo.xlsx
+++ b/Listas de precios/minorista/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">
@@ -1086,18 +1086,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/pasador con portacerrojo.xlsx
+++ b/Listas de precios/minorista/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">
@@ -1086,18 +1086,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/pasador con portacerrojo.xlsx
+++ b/Listas de precios/minorista/pasador con portacerrojo.xlsx
@@ -880,7 +880,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="n">
-        <v>45406</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="16">
